--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd9.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.514018</v>
+        <v>0.6436386666666666</v>
       </c>
       <c r="N2">
-        <v>1.542054</v>
+        <v>1.930916</v>
       </c>
       <c r="O2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="P2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="Q2">
-        <v>0.1082138107893333</v>
+        <v>0.1355022448462222</v>
       </c>
       <c r="R2">
-        <v>0.9739242971040001</v>
+        <v>1.219520203616</v>
       </c>
       <c r="S2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="T2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>1.634041</v>
       </c>
       <c r="O3">
-        <v>0.2906755439667749</v>
+        <v>0.2664627967585631</v>
       </c>
       <c r="P3">
-        <v>0.2906755439667749</v>
+        <v>0.266462796758563</v>
       </c>
       <c r="Q3">
         <v>0.1146690087351111</v>
@@ -641,10 +641,10 @@
         <v>1.032021078616</v>
       </c>
       <c r="S3">
-        <v>0.2906755439667749</v>
+        <v>0.2664627967585631</v>
       </c>
       <c r="T3">
-        <v>0.2906755439667749</v>
+        <v>0.266462796758563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1138553333333333</v>
+        <v>0.1891833333333333</v>
       </c>
       <c r="N4">
-        <v>0.341566</v>
+        <v>0.56755</v>
       </c>
       <c r="O4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976516</v>
       </c>
       <c r="P4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976514</v>
       </c>
       <c r="Q4">
-        <v>0.02396943200177778</v>
+        <v>0.03982788431111112</v>
       </c>
       <c r="R4">
-        <v>0.215724888016</v>
+        <v>0.3584509588</v>
       </c>
       <c r="S4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976516</v>
       </c>
       <c r="T4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065973333333332</v>
+        <v>0.3089366666666667</v>
       </c>
       <c r="N5">
-        <v>1.519792</v>
+        <v>0.92681</v>
       </c>
       <c r="O5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="P5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="Q5">
-        <v>0.1066515724657778</v>
+        <v>0.0650389947288889</v>
       </c>
       <c r="R5">
-        <v>0.9598641521919999</v>
+        <v>0.58535095256</v>
       </c>
       <c r="S5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="T5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04771466666666666</v>
+        <v>0.1497823333333334</v>
       </c>
       <c r="N6">
-        <v>0.143144</v>
+        <v>0.4493470000000001</v>
       </c>
       <c r="O6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670582</v>
       </c>
       <c r="P6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670581</v>
       </c>
       <c r="Q6">
-        <v>0.01004514610488889</v>
+        <v>0.03153297565244445</v>
       </c>
       <c r="R6">
-        <v>0.090406314944</v>
+        <v>0.2837967808720001</v>
       </c>
       <c r="S6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670582</v>
       </c>
       <c r="T6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1469773333333333</v>
+        <v>0.2078926666666666</v>
       </c>
       <c r="N7">
-        <v>0.440932</v>
+        <v>0.623678</v>
       </c>
       <c r="O7">
-        <v>0.07843631154442145</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="P7">
-        <v>0.07843631154442146</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="Q7">
-        <v>0.03094245209244444</v>
+        <v>0.04376667294755555</v>
       </c>
       <c r="R7">
-        <v>0.278482068832</v>
+        <v>0.393900056528</v>
       </c>
       <c r="S7">
-        <v>0.07843631154442145</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="T7">
-        <v>0.07843631154442146</v>
+        <v>0.1017030687460028</v>
       </c>
     </row>
   </sheetData>
